--- a/data/trans_dic/P1001-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>18,54%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 14,59</t>
+          <t>9,43; 14,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,57; 27,03</t>
+          <t>20,77; 25,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,51; 21,58</t>
+          <t>16,89; 20,69</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,22%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,65</t>
+          <t>3,39; 6,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 9,59</t>
+          <t>5,64; 8,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 7,81</t>
+          <t>4,98; 7,17</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,75%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,9</t>
+          <t>2,68; 5,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 9,43</t>
+          <t>5,69; 9,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,14</t>
+          <t>4,63; 7,15</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,15</t>
+          <t>4,45; 6,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,35; 12,7</t>
+          <t>8,93; 12,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 9,82</t>
+          <t>7,19; 9,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P1001-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,4</t>
+          <t>9,26; 13,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,76</t>
+          <t>10,88; 15,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,45</t>
+          <t>7,3; 11,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,43; 14,18</t>
+          <t>9,37; 14,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,67</t>
+          <t>11,88; 15,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,88; 26,65</t>
+          <t>21,82; 26,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,06; 25,71</t>
+          <t>19,86; 25,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,77; 25,95</t>
+          <t>20,94; 25,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 13,86</t>
+          <t>11,23; 13,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,88; 21,28</t>
+          <t>17,82; 21,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,0; 18,86</t>
+          <t>15,09; 19,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,89; 20,69</t>
+          <t>16,92; 20,51</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,58</t>
+          <t>2,76; 4,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,71</t>
+          <t>3,76; 5,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,91</t>
+          <t>4,79; 6,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,15</t>
+          <t>3,27; 6,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,85; 8,34</t>
+          <t>5,85; 8,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,47; 11,42</t>
+          <t>8,42; 11,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,34; 9,91</t>
+          <t>7,46; 9,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 8,99</t>
+          <t>5,48; 9,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,15</t>
+          <t>4,41; 6,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 8,02</t>
+          <t>6,36; 8,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 8,11</t>
+          <t>6,41; 8,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 7,17</t>
+          <t>5,01; 7,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,04</t>
+          <t>2,55; 6,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,45</t>
+          <t>2,78; 7,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,91</t>
+          <t>1,7; 4,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,95</t>
+          <t>2,72; 6,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,97</t>
+          <t>3,92; 8,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,81</t>
+          <t>3,24; 7,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,33</t>
+          <t>4,27; 8,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 9,48</t>
+          <t>5,72; 9,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,54</t>
+          <t>3,52; 6,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,62</t>
+          <t>3,56; 6,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,89</t>
+          <t>3,33; 5,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,15</t>
+          <t>4,56; 7,19</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 6,93</t>
+          <t>5,26; 6,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 7,95</t>
+          <t>6,2; 8,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 7,02</t>
+          <t>5,26; 6,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,67</t>
+          <t>4,44; 6,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,46</t>
+          <t>8,38; 10,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,45; 15,97</t>
+          <t>13,48; 15,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,16; 13,48</t>
+          <t>11,07; 13,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,0</t>
+          <t>8,85; 12,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 8,48</t>
+          <t>7,1; 8,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 11,69</t>
+          <t>10,1; 11,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,55; 9,92</t>
+          <t>8,54; 10,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 9,14</t>
+          <t>7,17; 9,07</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que hizo menos de lo que hubiera querido por problemas emocionales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>115102</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>129068</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69529</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>60187</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>179888</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>322089</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>226498</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>175007</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>294990</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>451157</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>296026</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>235194</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>95512; 135153</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>106074; 151873</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>55068; 87249</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>48174; 74863</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>156250; 204794</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>291723; 357134</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>197551; 253529</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>157943; 193006</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>263600; 324681</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>411899; 489247</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>263879; 332481</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>214577; 260210</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>60658</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>90392</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>120175</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>111510</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>110797</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>173895</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>172120</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>170216</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>171455</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>264286</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>292295</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>281726</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46752; 79070</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>73778; 112123</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>99520; 142010</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>74896; 138949</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>92940; 133930</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>147992; 200492</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>148309; 197868</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>122674; 204257</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>144809; 198758</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>236548; 307990</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>260622; 329173</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>226628; 325234</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22479</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22476</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16271</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26591</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27590</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23652</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>33641</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>48552</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50068</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>46128</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49913</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>75143</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14060; 33138</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13355; 36872</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9290; 25674</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17609; 38880</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18688; 38856</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14875; 35044</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23448; 46920</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37807; 62915</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36178; 64637</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33427; 65374</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>36472; 65641</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>59555; 94018</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>198238</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>241936</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>205975</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>198288</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>318275</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>519636</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>432259</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>393775</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>516514</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>761571</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>638234</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>592063</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>172453; 225005</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>211850; 278792</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>177812; 234416</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>153165; 233381</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>283244; 354868</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>478911; 565466</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>390957; 472695</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>323227; 440262</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>472859; 560462</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>704252; 812700</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>590009; 692303</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>509052; 644092</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>